--- a/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
+++ b/InputData/elec/BECF/BAU Expected Capacity Factors.xlsx
@@ -17242,109 +17242,109 @@
         </is>
       </c>
       <c r="B2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="C2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="D2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="E2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="F2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="G2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="H2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="I2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="J2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="K2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="L2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="M2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="N2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="O2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="P2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="Q2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="R2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="S2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="T2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="U2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="V2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="W2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="X2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="Y2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="Z2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="AA2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="AB2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="AC2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="AD2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="AE2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="AF2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="AG2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="AH2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="AI2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
       <c r="AJ2" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.65404</v>
       </c>
     </row>
     <row r="3">
@@ -17354,109 +17354,109 @@
         </is>
       </c>
       <c r="B3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="C3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="D3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="E3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="F3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="G3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="H3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="I3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="J3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="K3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="L3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="M3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="N3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="O3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="P3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="Q3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="R3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="S3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="T3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="U3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="V3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="W3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="X3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="Y3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="Z3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="AA3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="AB3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="AC3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="AD3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="AE3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="AF3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="AG3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="AH3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="AI3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
       <c r="AJ3" s="75" t="n">
-        <v>0.38526</v>
+        <v>0.67286</v>
       </c>
     </row>
     <row r="4">
@@ -17466,109 +17466,109 @@
         </is>
       </c>
       <c r="B4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="C4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="D4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="E4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="F4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="G4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="H4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="I4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="J4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="K4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="L4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="M4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="N4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="O4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="P4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="Q4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="R4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="S4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="T4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="U4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="V4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="W4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="X4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="Y4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="Z4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="AA4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="AB4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="AC4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="AD4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="AE4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="AF4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="AG4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="AH4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="AI4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
       <c r="AJ4" s="75" t="n">
-        <v>0.83235</v>
+        <v>0.84329</v>
       </c>
     </row>
     <row r="5">
@@ -17578,109 +17578,109 @@
         </is>
       </c>
       <c r="B5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="C5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="D5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="E5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="F5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="G5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="H5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="I5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="J5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="K5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="L5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="M5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="N5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="O5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="P5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="Q5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="R5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="S5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="T5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="U5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="V5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="W5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="X5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="Y5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="Z5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="AA5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="AB5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="AC5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="AD5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="AE5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="AF5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="AG5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="AH5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="AI5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
       <c r="AJ5" s="75" t="n">
-        <v>0.17609</v>
+        <v>0.04674</v>
       </c>
     </row>
     <row r="6">
@@ -17690,109 +17690,109 @@
         </is>
       </c>
       <c r="B6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="C6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="D6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="E6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="F6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="G6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="H6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="I6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="J6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="K6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="L6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="M6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="N6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="O6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="P6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="Q6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="R6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="S6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="T6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="U6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="V6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="W6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="X6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="Y6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="Z6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="AA6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="AB6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="AC6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="AD6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="AE6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="AF6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="AG6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="AH6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="AI6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
       <c r="AJ6" s="75" t="n">
-        <v>0.33094</v>
+        <v>0.33692</v>
       </c>
     </row>
     <row r="7">
@@ -17802,109 +17802,109 @@
         </is>
       </c>
       <c r="B7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="C7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="D7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="E7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="F7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="G7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="H7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="I7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="J7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="K7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="L7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="M7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="N7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="O7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="P7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="Q7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="R7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="S7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="T7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="U7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="V7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="W7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="X7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="Y7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="Z7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="AA7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="AB7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="AC7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="AD7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="AE7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="AF7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="AG7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="AH7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="AI7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
       <c r="AJ7" s="75" t="n">
-        <v>0.19174</v>
+        <v>0.25288</v>
       </c>
     </row>
     <row r="8">
@@ -17913,145 +17913,110 @@
           <t>solar thermal</t>
         </is>
       </c>
-      <c r="B8" s="75">
-        <f>'Table 4.8.B'!O16</f>
-        <v/>
-      </c>
-      <c r="C8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="D8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="E8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="F8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="G8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="H8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="I8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="J8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="K8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="L8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="M8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="N8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="O8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="P8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="Q8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="R8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="S8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="T8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="U8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="V8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="W8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="X8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="Y8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="Z8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="AA8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="AB8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="AC8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="AD8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="AE8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="AF8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="AG8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="AH8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="AI8" s="75">
-        <f>$B8</f>
-        <v/>
-      </c>
-      <c r="AJ8" s="75">
-        <f>$B8</f>
-        <v/>
+      <c r="B8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="C8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="D8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="E8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="F8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="G8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="H8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="I8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="J8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="K8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="L8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="M8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="N8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="O8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="P8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="Q8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="R8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="S8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="T8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="U8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="V8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="W8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="X8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="Y8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="Z8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="AA8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="AB8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="AC8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="AD8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="AE8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="AF8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="AG8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="AH8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="AI8" s="75" t="n">
+        <v>0.17033</v>
+      </c>
+      <c r="AJ8" s="75" t="n">
+        <v>0.17033</v>
       </c>
     </row>
     <row r="9">
@@ -18061,109 +18026,109 @@
         </is>
       </c>
       <c r="B9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="C9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="D9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="E9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="F9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="G9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="H9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="I9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="J9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="K9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="L9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="M9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="N9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="O9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="P9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="Q9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="R9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="S9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="T9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="U9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="V9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="W9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="X9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="Y9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="Z9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="AA9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="AB9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="AC9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="AD9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="AE9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="AF9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="AG9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="AH9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="AI9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
       <c r="AJ9" s="75" t="n">
-        <v>0.53681</v>
+        <v>0.66191</v>
       </c>
     </row>
     <row r="10">
@@ -18172,145 +18137,110 @@
           <t>geothermal</t>
         </is>
       </c>
-      <c r="B10" s="75">
-        <f>'Table 4.8.B'!C16</f>
-        <v/>
-      </c>
-      <c r="C10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="D10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="E10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="F10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="G10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="H10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="I10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="J10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="K10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="L10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="M10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="N10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="O10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="P10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="Q10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="R10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="S10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="T10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="U10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="V10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="W10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="X10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="Y10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="Z10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="AA10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="AB10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="AC10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="AD10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="AE10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="AF10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="AG10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="AH10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="AI10" s="75">
-        <f>$B10</f>
-        <v/>
-      </c>
-      <c r="AJ10" s="75">
-        <f>$B10</f>
-        <v/>
+      <c r="B10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="C10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="D10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="E10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="F10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="G10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="H10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="I10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="J10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="K10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="L10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="M10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="N10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="O10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="P10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="Q10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="R10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="S10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="T10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="U10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="V10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="W10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="X10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="Y10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="Z10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="AA10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="AB10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="AC10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="AD10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="AE10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="AF10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="AG10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="AH10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="AI10" s="75" t="n">
+        <v>0.64695</v>
+      </c>
+      <c r="AJ10" s="75" t="n">
+        <v>0.64695</v>
       </c>
     </row>
     <row r="11">
@@ -18320,109 +18250,109 @@
         </is>
       </c>
       <c r="B11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="C11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="D11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="E11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="F11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="G11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="H11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="I11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="J11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="K11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="L11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="M11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="N11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="O11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="P11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="Q11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="R11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="S11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="T11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="U11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="V11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="W11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="X11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="Y11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="Z11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AA11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AB11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AC11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AD11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AE11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AF11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AG11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AH11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AI11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AJ11" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
     </row>
     <row r="12">
@@ -18432,109 +18362,109 @@
         </is>
       </c>
       <c r="B12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="C12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="D12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="E12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="F12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="G12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="H12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="I12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="J12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="K12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="L12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="M12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="N12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="O12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="P12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="Q12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="R12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="S12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="T12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="U12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="V12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="W12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="X12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="Y12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="Z12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="AA12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="AB12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="AC12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="AD12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="AE12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="AF12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="AG12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="AH12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="AI12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
       <c r="AJ12" s="75" t="n">
-        <v>0.17028</v>
+        <v>0.33765</v>
       </c>
     </row>
     <row r="13">
@@ -18544,109 +18474,109 @@
         </is>
       </c>
       <c r="B13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="C13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="D13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="E13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="F13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="G13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="H13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="I13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="J13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="K13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="L13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="M13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="N13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="O13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="P13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="Q13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="R13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="S13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="T13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="U13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="V13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="W13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="X13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="Y13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="Z13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="AA13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="AB13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="AC13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="AD13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="AE13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="AF13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="AG13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="AH13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="AI13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
       <c r="AJ13" s="75" t="n">
-        <v>0.50746</v>
+        <v>0.66191</v>
       </c>
     </row>
     <row r="14">
@@ -18802,109 +18732,109 @@
         </is>
       </c>
       <c r="B15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="C15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="D15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="E15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="F15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="G15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="H15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="I15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="J15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="K15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="L15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="M15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="N15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="O15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="P15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="Q15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="R15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="S15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="T15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="U15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="V15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="W15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="X15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="Y15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="Z15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AA15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AB15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AC15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AD15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AE15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AF15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AG15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AH15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AI15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AJ15" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
     </row>
     <row r="16">
@@ -18914,109 +18844,109 @@
         </is>
       </c>
       <c r="B16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="C16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="D16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="E16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="F16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="G16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="H16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="I16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="J16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="K16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="L16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="M16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="N16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="O16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="P16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="Q16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="R16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="S16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="T16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="U16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="V16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="W16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="X16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="Y16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="Z16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AA16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AB16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AC16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AD16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AE16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AF16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AG16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AH16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AI16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
       <c r="AJ16" s="75" t="n">
-        <v>0.02254</v>
+        <v>0.56819</v>
       </c>
     </row>
     <row r="17">
